--- a/data/trans_dic/P4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2</t>
+          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2 (tasa de respuesta: 94,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>35,38%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>34,46%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>36,49%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,95; 46,27</t>
+          <t>12,46; 65,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,46; 45,21</t>
+          <t>12,67; 71,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,62; 45,56</t>
+          <t>12,7; 71,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,97; 52,61</t>
+          <t>13,11; 75,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,28; 41,93</t>
+          <t>4,96; 38,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,0; 44,06</t>
+          <t>20,29; 50,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,16; 41,41</t>
+          <t>21,11; 52,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,71; 42,2</t>
+          <t>20,05; 49,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,67; 39,59</t>
+          <t>19,72; 50,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,19; 40,29</t>
+          <t>20,49; 56,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,75; 39,05</t>
+          <t>21,05; 51,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,65; 46,73</t>
+          <t>22,21; 57,59</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>21,63; 57,38</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22,22; 63,09</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>14,67; 41,13</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>19,94%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>20,88%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>21,38%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>22,07%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,99; 30,43</t>
+          <t>13,45; 35,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,85; 30,18</t>
+          <t>13,75; 36,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 29,01</t>
+          <t>13,4; 33,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 30,36</t>
+          <t>13,81; 35,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,44; 28,62</t>
+          <t>14,11; 28,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,73; 29,61</t>
+          <t>14,52; 26,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,49; 31,54</t>
+          <t>13,35; 25,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,45; 29,98</t>
+          <t>15,47; 29,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,39; 27,83</t>
+          <t>15,84; 28,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,44; 28,45</t>
+          <t>16,28; 30,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,75; 28,12</t>
+          <t>15,42; 28,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,74; 28,44</t>
+          <t>15,08; 27,97</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>16,18; 28,04</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>16,45; 28,62</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 27,34</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>23,32%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>24,49%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>21,28%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,89; 25,27</t>
+          <t>16,56; 34,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 26,81</t>
+          <t>15,8; 34,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 27,7</t>
+          <t>16,95; 35,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,62; 28,99</t>
+          <t>16,26; 33,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,67; 28,85</t>
+          <t>15,3; 31,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,68; 29,3</t>
+          <t>15,57; 28,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,17; 29,72</t>
+          <t>16,98; 31,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,74; 29,76</t>
+          <t>16,61; 31,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,77; 25,01</t>
+          <t>17,72; 31,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,78; 25,61</t>
+          <t>14,45; 28,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,9; 26,5</t>
+          <t>17,94; 28,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 26,96</t>
+          <t>18,29; 29,29</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>19,14; 30,6</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>19,44; 30,32</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>16,35; 27,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,21; 27,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,93; 27,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 27,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,34; 28,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 28,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,7; 29,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,05; 29,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,5; 29,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,59; 26,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,81; 26,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,99; 27,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,32; 27,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23,37%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24,0%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>24,09%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25,08%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21,11%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22,18%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22,68%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23,68%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24,17%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24,49%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22,76%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>23,32%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>23,89%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>22,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17,33; 31,81</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17,88; 34,0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17,87; 32,98</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18,45; 35,92</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 26,66</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17,76; 26,86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18,32; 27,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19,63; 28,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19,91; 29,16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,73; 29,96</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19,31; 27,76</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19,84; 28,77</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>19,93; 28,83</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>21,14; 30,81</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 26,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2 (tasa de respuesta: 94,38%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31607</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44272</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>35879</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>43093</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>30402</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>29388</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36264</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27760</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29036</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>54250</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>60995</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>80536</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>63639</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>72130</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>84652</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12559; 65615</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15934; 89607</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12979; 72612</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14538; 83749</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8106; 63235</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17480; 43223</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21513; 53247</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16541; 41240</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17109; 43583</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28684; 79246</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39354; 95579</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50557; 131082</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>39938; 105958</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>43921; 124707</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>44542; 124852</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>70938</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>84646</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71644</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>78060</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>96527</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>66963</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>76856</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>71008</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>70184</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>89545</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>137901</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>161502</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>142652</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>148244</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>186073</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46236; 121188</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>55339; 146893</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>47003; 116580</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>50509; 130360</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>64132; 130921</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>49365; 88463</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>54416; 105142</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51415; 96727</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>51905; 93353</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>63209; 118514</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>105461; 192045</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>122131; 226531</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>110497; 191526</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>114044; 198414</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>145588; 230504</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>67543</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>77075</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>69037</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>66688</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>75691</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>72768</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>93599</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>75650</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>73400</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>72585</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>140311</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>170674</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>144687</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>140088</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>148277</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>46895; 96394</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>52131; 112964</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47451; 99583</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>44289; 92138</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>52270; 106109</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>52387; 97386</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>68268; 124681</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>53404; 99854</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>53096; 93739</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>51304; 100758</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>111130; 176237</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>133858; 214403</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>115131; 184100</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>111180; 173395</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>113891; 191405</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>170088</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>205994</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>176559</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>187841</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>202621</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>169119</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>206719</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>174419</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>172621</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>216381</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>339207</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>412713</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>350978</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>360462</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>419002</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>126136; 231528</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>153428; 291803</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>130945; 241726</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>138164; 268975</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>151801; 255943</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>135444; 204847</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>166990; 249233</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>144577; 209276</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>142195; 208234</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>174300; 264662</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>287824; 413668</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>351139; 509129</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>292837; 423647</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>309331; 450681</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>351259; 493906</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
